--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Azul.Zorzoli\Documents\R Projects\ShinyApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D414E8E0-2E29-4296-BE39-039AF1724B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D58BF2-CDEE-4D61-ACAF-B1D401191CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4670" yWindow="310" windowWidth="12750" windowHeight="9890" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="748" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="patient_details" sheetId="3" r:id="rId1"/>
-    <sheet name="therapy" sheetId="1" r:id="rId2"/>
-    <sheet name="inflammatory_markers" sheetId="2" r:id="rId3"/>
+    <sheet name="therapy" sheetId="1" r:id="rId1"/>
+    <sheet name="inflammatory_markers" sheetId="2" r:id="rId2"/>
+    <sheet name="patient_details" sheetId="3" r:id="rId3"/>
+    <sheet name="cultures" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>start</t>
   </si>
@@ -89,31 +90,40 @@
     <t>13:03</t>
   </si>
   <si>
-    <t>000-000-001</t>
-  </si>
-  <si>
-    <t>Peter Rabbit</t>
-  </si>
-  <si>
-    <t>Ward 1234</t>
-  </si>
-  <si>
-    <t>Chicago Hope</t>
-  </si>
-  <si>
     <t>patient_name</t>
   </si>
   <si>
     <t>dob</t>
   </si>
   <si>
-    <t>chi_number</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>hospital</t>
+    <t>Scott Johnston</t>
+  </si>
+  <si>
+    <t>organism</t>
+  </si>
+  <si>
+    <t>aerobic bottle</t>
+  </si>
+  <si>
+    <t>S. aureus</t>
+  </si>
+  <si>
+    <t>specimen</t>
+  </si>
+  <si>
+    <t>S. epidermidis</t>
+  </si>
+  <si>
+    <t>stool</t>
+  </si>
+  <si>
+    <t>C. difficile</t>
+  </si>
+  <si>
+    <t>joint fluid</t>
+  </si>
+  <si>
+    <t>no growth</t>
   </si>
 </sst>
 </file>
@@ -145,18 +155,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -224,7 +228,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -541,68 +545,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7574B117-F3E7-4BAC-8401-496F1AA7E202}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="20">
-        <v>19450</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -625,7 +573,7 @@
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A2" s="8">
         <v>44959</v>
       </c>
       <c r="B2" s="8">
@@ -714,7 +662,7 @@
       <c r="A9" s="8">
         <v>45037</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="8">
         <v>45041</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -731,13 +679,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -907,7 +855,9 @@
         <v>44962</v>
       </c>
       <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
+      <c r="C11" s="17">
+        <v>255</v>
+      </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -917,7 +867,9 @@
         <v>44963</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
+      <c r="C12" s="17">
+        <v>255</v>
+      </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17">
@@ -929,7 +881,9 @@
         <v>44964</v>
       </c>
       <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="C13" s="17">
+        <v>260</v>
+      </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17">
@@ -942,7 +896,7 @@
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="17">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D14" s="17">
         <v>13</v>
@@ -959,7 +913,9 @@
         <v>44966</v>
       </c>
       <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
+      <c r="C15" s="17">
+        <v>300</v>
+      </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -969,7 +925,9 @@
         <v>44967</v>
       </c>
       <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
+      <c r="C16" s="17">
+        <v>310</v>
+      </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17">
@@ -981,40 +939,56 @@
         <v>44968</v>
       </c>
       <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
+      <c r="C17" s="17">
+        <v>322</v>
+      </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="F17" s="17">
+        <v>37.200000000000003</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>44969</v>
       </c>
       <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
+      <c r="C18" s="17">
+        <v>333</v>
+      </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="F18" s="17">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>44970</v>
       </c>
       <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
+      <c r="C19" s="17">
+        <v>344</v>
+      </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="F19" s="17">
+        <v>37.299999999999997</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>44971</v>
       </c>
       <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>355</v>
+      </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="F20" s="17">
+        <v>38.1</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -1022,7 +996,7 @@
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="17">
-        <v>44</v>
+        <v>366</v>
       </c>
       <c r="D21" s="17">
         <v>10.6</v>
@@ -1030,37 +1004,51 @@
       <c r="E21" s="17">
         <v>68</v>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="17">
+        <v>38.1</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>44973</v>
       </c>
       <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
+      <c r="C22" s="17">
+        <v>367</v>
+      </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="F22" s="17">
+        <v>38.200000000000003</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>44974</v>
       </c>
       <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
+      <c r="C23" s="17">
+        <v>390</v>
+      </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="F23" s="17">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>44975</v>
       </c>
       <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
+      <c r="C24" s="17">
+        <v>391</v>
+      </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="F24" s="17">
+        <v>38.700000000000003</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
@@ -1068,77 +1056,165 @@
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="17">
-        <v>65</v>
+        <v>392</v>
       </c>
       <c r="D25" s="17">
-        <v>7.9</v>
+        <v>15</v>
       </c>
       <c r="E25" s="17">
         <v>66</v>
       </c>
-      <c r="F25" s="17"/>
+      <c r="F25" s="17">
+        <v>39.200000000000003</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>44977</v>
       </c>
       <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>396</v>
+      </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="F26" s="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
+        <v>45003</v>
+      </c>
+      <c r="C27" s="17">
+        <v>500</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="F27" s="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
+        <v>45005</v>
+      </c>
+      <c r="C28" s="17">
+        <v>380</v>
+      </c>
+      <c r="F28" s="17">
+        <v>39</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="A29" s="19">
+        <v>45010</v>
+      </c>
+      <c r="C29" s="17">
+        <v>300</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
       <c r="E29" s="10"/>
+      <c r="F29" s="17">
+        <v>38.700000000000003</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="10"/>
+      <c r="A30" s="19">
+        <v>45017</v>
+      </c>
+      <c r="C30" s="17">
+        <v>200</v>
+      </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="17">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="19">
+        <v>45022</v>
+      </c>
+      <c r="C31" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
+        <v>45026</v>
+      </c>
+      <c r="C32" s="17">
+        <v>80</v>
+      </c>
+      <c r="F32" s="17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
+        <v>45028</v>
+      </c>
+      <c r="C33" s="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="19">
+        <v>45031</v>
+      </c>
+      <c r="C34" s="17">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34" s="10">
+        <v>40</v>
+      </c>
+      <c r="F34" s="17">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -1150,10 +1226,171 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1E762F-78BF-4C36-A2ED-BD134F82F122}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="20">
+        <v>19450</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB483CA-2989-41B8-99EB-9E75EE5FD219}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>44959</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>44979</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>44995</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>44980</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>45001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>45005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>45020</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>45037</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Azul.Zorzoli\Documents\R Projects\ShinyApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Azul.Zorzoli\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D58BF2-CDEE-4D61-ACAF-B1D401191CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B8DF5B-3EDF-4C4B-9ACA-0F2FAD4E906E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="748" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="748" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="therapy" sheetId="1" r:id="rId1"/>
     <sheet name="inflammatory_markers" sheetId="2" r:id="rId2"/>
-    <sheet name="patient_details" sheetId="3" r:id="rId3"/>
-    <sheet name="cultures" sheetId="4" r:id="rId4"/>
+    <sheet name="cultures" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>start</t>
   </si>
@@ -88,15 +87,6 @@
   </si>
   <si>
     <t>13:03</t>
-  </si>
-  <si>
-    <t>patient_name</t>
-  </si>
-  <si>
-    <t>dob</t>
-  </si>
-  <si>
-    <t>Scott Johnston</t>
   </si>
   <si>
     <t>organism</t>
@@ -175,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -226,7 +216,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -550,7 +539,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A9"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1235,53 +1224,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1E762F-78BF-4C36-A2ED-BD134F82F122}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="20">
-        <v>19450</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB483CA-2989-41B8-99EB-9E75EE5FD219}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B9"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1292,102 +1239,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>44959</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>44979</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>44995</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>44980</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>45001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>45005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>45020</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>45037</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
-        <v>44959</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
-        <v>44979</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
-        <v>44995</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
-        <v>44980</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
-        <v>45001</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
-        <v>45005</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
-        <v>45020</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
-        <v>45037</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Azul.Zorzoli\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B8DF5B-3EDF-4C4B-9ACA-0F2FAD4E906E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42DCE82-1961-4766-AB37-0D66F2A6E5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="748" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="748" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="therapy" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>start</t>
   </si>
@@ -114,6 +114,33 @@
   </si>
   <si>
     <t>no growth</t>
+  </si>
+  <si>
+    <t>platelets</t>
+  </si>
+  <si>
+    <t>08:10</t>
+  </si>
+  <si>
+    <t>10:24</t>
+  </si>
+  <si>
+    <t>15:22</t>
+  </si>
+  <si>
+    <t>21:05</t>
+  </si>
+  <si>
+    <t>11:02</t>
+  </si>
+  <si>
+    <t>21:02</t>
+  </si>
+  <si>
+    <t>10:02</t>
+  </si>
+  <si>
+    <t>07:03</t>
   </si>
 </sst>
 </file>
@@ -165,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -218,6 +245,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -672,9 +703,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -702,7 +733,9 @@
       <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="10"/>
+      <c r="G1" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
@@ -719,7 +752,9 @@
         <v>100</v>
       </c>
       <c r="F2" s="16"/>
-      <c r="G2" s="10"/>
+      <c r="G2" s="17">
+        <v>300</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
@@ -799,7 +834,7 @@
       <c r="C8" s="17">
         <v>255</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="22">
         <v>10.6</v>
       </c>
       <c r="E8" s="17">
@@ -807,6 +842,9 @@
       </c>
       <c r="F8" s="17">
         <v>37.9</v>
+      </c>
+      <c r="G8" s="17">
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -815,7 +853,7 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17">
         <v>35.4</v>
@@ -829,7 +867,7 @@
       <c r="C10" s="17">
         <v>180</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="22">
         <v>10.6</v>
       </c>
       <c r="E10" s="17">
@@ -847,7 +885,7 @@
       <c r="C11" s="17">
         <v>255</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
     </row>
@@ -859,7 +897,9 @@
       <c r="C12" s="17">
         <v>255</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="22">
+        <v>11</v>
+      </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17">
         <v>35.5</v>
@@ -869,11 +909,13 @@
       <c r="A13" s="19">
         <v>44964</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="C13" s="17">
         <v>260</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17">
         <v>36.5</v>
@@ -883,11 +925,13 @@
       <c r="A14" s="19">
         <v>44965</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="C14" s="17">
         <v>280</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="22">
         <v>13</v>
       </c>
       <c r="E14" s="17">
@@ -895,6 +939,9 @@
       </c>
       <c r="F14" s="17">
         <v>37.4</v>
+      </c>
+      <c r="G14" s="17">
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -905,7 +952,7 @@
       <c r="C15" s="17">
         <v>300</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
@@ -913,31 +960,37 @@
       <c r="A16" s="19">
         <v>44967</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="C16" s="17">
         <v>310</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="22">
+        <v>12</v>
+      </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17">
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>44968</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="C17" s="17">
         <v>322</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17">
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>44969</v>
       </c>
@@ -945,13 +998,13 @@
       <c r="C18" s="17">
         <v>333</v>
       </c>
-      <c r="D18" s="17"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17">
         <v>37.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>44970</v>
       </c>
@@ -959,13 +1012,15 @@
       <c r="C19" s="17">
         <v>344</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="22">
+        <v>12</v>
+      </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17">
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>44971</v>
       </c>
@@ -973,13 +1028,15 @@
       <c r="C20" s="17">
         <v>355</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="22">
+        <v>12.3</v>
+      </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17">
         <v>38.1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>44972</v>
       </c>
@@ -987,8 +1044,8 @@
       <c r="C21" s="17">
         <v>366</v>
       </c>
-      <c r="D21" s="17">
-        <v>10.6</v>
+      <c r="D21" s="22">
+        <v>13</v>
       </c>
       <c r="E21" s="17">
         <v>68</v>
@@ -996,22 +1053,27 @@
       <c r="F21" s="17">
         <v>38.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="17">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>44973</v>
       </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="C22" s="17">
         <v>367</v>
       </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17">
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>44974</v>
       </c>
@@ -1019,27 +1081,32 @@
       <c r="C23" s="17">
         <v>390</v>
       </c>
-      <c r="D23" s="17"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17">
         <v>38.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>44975</v>
       </c>
-      <c r="B24" s="16"/>
+      <c r="B24" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="C24" s="17">
         <v>391</v>
       </c>
-      <c r="D24" s="17"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17">
         <v>38.700000000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>44976</v>
       </c>
@@ -1047,7 +1114,7 @@
       <c r="C25" s="17">
         <v>392</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="22">
         <v>15</v>
       </c>
       <c r="E25" s="17">
@@ -1056,109 +1123,158 @@
       <c r="F25" s="17">
         <v>39.200000000000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="17">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>44977</v>
       </c>
-      <c r="B26" s="16"/>
+      <c r="B26" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="C26" s="17">
         <v>396</v>
       </c>
-      <c r="D26" s="17"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>45003</v>
       </c>
       <c r="C27" s="17">
         <v>500</v>
       </c>
-      <c r="D27">
-        <v>9</v>
+      <c r="D27" s="22">
+        <v>16</v>
       </c>
       <c r="F27" s="17">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>45005</v>
       </c>
       <c r="C28" s="17">
         <v>380</v>
       </c>
+      <c r="D28" s="22"/>
       <c r="F28" s="17">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>45010</v>
       </c>
       <c r="C29" s="17">
         <v>300</v>
       </c>
-      <c r="D29">
-        <v>8</v>
+      <c r="D29" s="22">
+        <v>12</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="17">
         <v>38.700000000000003</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>45017</v>
       </c>
+      <c r="B30" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="C30" s="17">
         <v>200</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="22">
+        <v>10</v>
+      </c>
       <c r="E30" s="10"/>
       <c r="F30" s="17">
         <v>38.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>45022</v>
       </c>
+      <c r="B31" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="C31" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="22">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>45026</v>
       </c>
+      <c r="B32" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="C32" s="17">
         <v>80</v>
       </c>
+      <c r="D32" s="22"/>
       <c r="F32" s="17">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>45028</v>
       </c>
+      <c r="B33" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="C33" s="17">
         <v>90</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="22"/>
+      <c r="G33">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>45031</v>
       </c>
+      <c r="B34" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="C34" s="17">
         <v>50</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="22">
         <v>8</v>
       </c>
       <c r="E34" s="10">
@@ -1168,42 +1284,42 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -1227,7 +1343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB483CA-2989-41B8-99EB-9E75EE5FD219}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>

--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Azul.Zorzoli\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42DCE82-1961-4766-AB37-0D66F2A6E5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915EF266-264B-4CA8-9F9F-CCA292FDF78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="748" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="748" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="therapy" sheetId="1" r:id="rId1"/>
+    <sheet name="antimicrobials" sheetId="1" r:id="rId1"/>
     <sheet name="inflammatory_markers" sheetId="2" r:id="rId2"/>
-    <sheet name="cultures" sheetId="4" r:id="rId3"/>
+    <sheet name="microbiology" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>start</t>
   </si>
@@ -113,9 +113,6 @@
     <t>joint fluid</t>
   </si>
   <si>
-    <t>no growth</t>
-  </si>
-  <si>
     <t>platelets</t>
   </si>
   <si>
@@ -141,6 +138,21 @@
   </si>
   <si>
     <t>07:03</t>
+  </si>
+  <si>
+    <t>sputum</t>
+  </si>
+  <si>
+    <t>BAL</t>
+  </si>
+  <si>
+    <t>microscopy</t>
+  </si>
+  <si>
+    <t>Gram+ in clusters</t>
+  </si>
+  <si>
+    <t>No growth</t>
   </si>
 </sst>
 </file>
@@ -570,7 +582,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -703,9 +715,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -734,7 +746,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -910,7 +922,7 @@
         <v>44964</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="17">
         <v>260</v>
@@ -961,7 +973,7 @@
         <v>44967</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="17">
         <v>310</v>
@@ -979,7 +991,7 @@
         <v>44968</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="17">
         <v>322</v>
@@ -1201,7 +1213,7 @@
         <v>45017</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="17">
         <v>200</v>
@@ -1222,7 +1234,7 @@
         <v>45022</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="17">
         <v>100</v>
@@ -1239,7 +1251,7 @@
         <v>45026</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="17">
         <v>80</v>
@@ -1254,7 +1266,7 @@
         <v>45028</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="17">
         <v>90</v>
@@ -1269,7 +1281,7 @@
         <v>45031</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="17">
         <v>50</v>
@@ -1341,20 +1353,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB483CA-2989-41B8-99EB-9E75EE5FD219}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
@@ -1364,21 +1376,22 @@
       <c r="C1" s="20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
         <v>44959</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
-        <v>44979</v>
+        <v>44960</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -1387,7 +1400,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>44995</v>
       </c>
@@ -1398,18 +1411,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>44980</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>45001</v>
       </c>
@@ -1420,7 +1433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>45005</v>
       </c>
@@ -1431,18 +1444,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>45020</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>45037</v>
       </c>

--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Azul.Zorzoli\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915EF266-264B-4CA8-9F9F-CCA292FDF78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785A5007-AEC1-43F4-B11F-FAE707270FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="748" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="748" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="antimicrobials" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>start</t>
   </si>
@@ -128,22 +128,10 @@
     <t>21:05</t>
   </si>
   <si>
-    <t>11:02</t>
-  </si>
-  <si>
     <t>21:02</t>
   </si>
   <si>
-    <t>10:02</t>
-  </si>
-  <si>
-    <t>07:03</t>
-  </si>
-  <si>
     <t>sputum</t>
-  </si>
-  <si>
-    <t>BAL</t>
   </si>
   <si>
     <t>microscopy</t>
@@ -582,7 +570,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -691,8 +679,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>45037</v>
+      <c r="A9" s="19">
+        <v>45020</v>
       </c>
       <c r="B9" s="8">
         <v>45041</v>
@@ -713,10 +701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -792,9 +780,7 @@
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="17">
-        <v>37.200000000000003</v>
-      </c>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -844,7 +830,7 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="17">
-        <v>255</v>
+        <v>160</v>
       </c>
       <c r="D8" s="22">
         <v>10.6</v>
@@ -882,9 +868,7 @@
       <c r="D10" s="22">
         <v>10.6</v>
       </c>
-      <c r="E10" s="17">
-        <v>106</v>
-      </c>
+      <c r="E10" s="17"/>
       <c r="F10" s="17">
         <v>36.4</v>
       </c>
@@ -895,7 +879,7 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="17">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="17"/>
@@ -903,443 +887,303 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
-        <v>44963</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17">
-        <v>255</v>
-      </c>
+        <v>44965</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="17"/>
       <c r="D12" s="22">
-        <v>11</v>
-      </c>
-      <c r="E12" s="17"/>
+        <v>13</v>
+      </c>
+      <c r="E12" s="17">
+        <v>68</v>
+      </c>
       <c r="F12" s="17">
-        <v>35.5</v>
+        <v>37.4</v>
+      </c>
+      <c r="G12" s="17">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
-        <v>44964</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>36</v>
-      </c>
+        <v>44966</v>
+      </c>
+      <c r="B13" s="16"/>
       <c r="C13" s="17">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="17">
-        <v>36.5</v>
-      </c>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
-        <v>44965</v>
+        <v>44969</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="17">
-        <v>280</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C14" s="17"/>
       <c r="D14" s="22">
-        <v>13</v>
-      </c>
-      <c r="E14" s="17">
-        <v>68</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E14" s="17"/>
       <c r="F14" s="17">
-        <v>37.4</v>
-      </c>
-      <c r="G14" s="17">
-        <v>220</v>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
-        <v>44966</v>
+        <v>44973</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="17">
-        <v>300</v>
-      </c>
-      <c r="D15" s="22"/>
+        <v>256</v>
+      </c>
+      <c r="D15" s="22">
+        <v>12</v>
+      </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="F15" s="17">
+        <v>37.299999999999997</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
-        <v>44967</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>34</v>
-      </c>
+        <v>44978</v>
+      </c>
+      <c r="B16" s="16"/>
       <c r="C16" s="17">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="D16" s="22">
-        <v>12</v>
-      </c>
-      <c r="E16" s="17"/>
+        <v>13</v>
+      </c>
+      <c r="E16" s="17">
+        <v>80</v>
+      </c>
       <c r="F16" s="17">
-        <v>36.799999999999997</v>
+        <v>38.1</v>
+      </c>
+      <c r="G16" s="17">
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
-        <v>44968</v>
+        <v>44983</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="17">
-        <v>322</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C17" s="17"/>
       <c r="D17" s="22"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="17">
-        <v>37.200000000000003</v>
-      </c>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
-        <v>44969</v>
+        <v>44986</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="17">
-        <v>333</v>
+        <v>282</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="17">
-        <v>37.5</v>
-      </c>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
-        <v>44970</v>
+        <v>44990</v>
       </c>
       <c r="B19" s="16"/>
-      <c r="C19" s="17">
-        <v>344</v>
-      </c>
+      <c r="C19" s="17"/>
       <c r="D19" s="22">
-        <v>12</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17">
-        <v>37.299999999999997</v>
+        <v>15</v>
+      </c>
+      <c r="E19" s="17">
+        <v>86</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17">
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
-        <v>44971</v>
-      </c>
-      <c r="B20" s="16"/>
+        <v>44996</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="C20" s="17">
-        <v>355</v>
-      </c>
-      <c r="D20" s="22">
-        <v>12.3</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="D20" s="22"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17">
-        <v>38.1</v>
+        <v>39.5</v>
+      </c>
+      <c r="G20">
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
-        <v>44972</v>
-      </c>
-      <c r="B21" s="16"/>
+        <v>45003</v>
+      </c>
       <c r="C21" s="17">
-        <v>366</v>
+        <v>290</v>
       </c>
       <c r="D21" s="22">
-        <v>13</v>
-      </c>
-      <c r="E21" s="17">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="F21" s="17">
-        <v>38.1</v>
-      </c>
-      <c r="G21" s="17">
-        <v>180</v>
+        <v>40</v>
+      </c>
+      <c r="G21">
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
-        <v>44973</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>15</v>
+        <v>45010</v>
       </c>
       <c r="C22" s="17">
-        <v>367</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17">
-        <v>38.200000000000003</v>
+        <v>150</v>
+      </c>
+      <c r="D22" s="22">
+        <v>12</v>
+      </c>
+      <c r="E22" s="10">
+        <v>70</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22">
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
-        <v>44974</v>
-      </c>
-      <c r="B23" s="16"/>
+        <v>45017</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="C23" s="17">
-        <v>390</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="17"/>
+        <v>90</v>
+      </c>
+      <c r="D23" s="22">
+        <v>10</v>
+      </c>
+      <c r="E23" s="10"/>
       <c r="F23" s="17">
-        <v>38.5</v>
+        <v>38.6</v>
+      </c>
+      <c r="G23">
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
-        <v>44975</v>
+        <v>45022</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="17">
-        <v>391</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17">
-        <v>38.700000000000003</v>
+        <v>60</v>
+      </c>
+      <c r="D24" s="22">
+        <v>9</v>
       </c>
       <c r="G24">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
-        <v>44976</v>
-      </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17">
-        <v>392</v>
-      </c>
-      <c r="D25" s="22">
-        <v>15</v>
-      </c>
-      <c r="E25" s="17">
-        <v>66</v>
-      </c>
+        <v>45026</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="22"/>
       <c r="F25" s="17">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="G25" s="17">
-        <v>110</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
-        <v>44977</v>
+        <v>45040</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C26" s="17">
-        <v>396</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="D26" s="22">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>62</v>
+      </c>
       <c r="F26" s="17">
-        <v>40</v>
+        <v>37.4</v>
       </c>
       <c r="G26">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
-        <v>45003</v>
-      </c>
-      <c r="C27" s="17">
-        <v>500</v>
-      </c>
-      <c r="D27" s="22">
-        <v>16</v>
-      </c>
-      <c r="F27" s="17">
-        <v>42</v>
-      </c>
-      <c r="G27">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
-        <v>45005</v>
-      </c>
-      <c r="C28" s="17">
-        <v>380</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="F28" s="17">
-        <v>39</v>
-      </c>
-      <c r="G28">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
-        <v>45010</v>
-      </c>
-      <c r="C29" s="17">
-        <v>300</v>
-      </c>
-      <c r="D29" s="22">
-        <v>12</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="17">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="G29">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
-        <v>45017</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="17">
-        <v>200</v>
-      </c>
-      <c r="D30" s="22">
-        <v>10</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="17">
-        <v>38.6</v>
-      </c>
-      <c r="G30">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
-        <v>45022</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="17">
-        <v>100</v>
-      </c>
-      <c r="D31" s="22">
-        <v>9</v>
-      </c>
-      <c r="G31">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
-        <v>45026</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="17">
-        <v>80</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="F32" s="17">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="19">
-        <v>45028</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="17">
-        <v>90</v>
-      </c>
-      <c r="D33" s="22"/>
-      <c r="G33">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
-        <v>45031</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="17">
-        <v>50</v>
-      </c>
-      <c r="D34" s="22">
-        <v>8</v>
-      </c>
-      <c r="E34" s="10">
-        <v>40</v>
-      </c>
-      <c r="F34" s="17">
-        <v>36.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1356,7 +1200,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1383,10 +1227,10 @@
         <v>44959</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1416,10 +1260,10 @@
         <v>44980</v>
       </c>
       <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1449,22 +1293,14 @@
         <v>45020</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
-        <v>45037</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
+      <c r="A9" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
